--- a/biology/Histoire de la zoologie et de la botanique/Raymond_de_Dalmas/Raymond_de_Dalmas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Raymond_de_Dalmas/Raymond_de_Dalmas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond, comte de Dalmas (Paris, 5 février 1862 - Paris, 4 février 1930) est un voyageur et ornithologue français. 
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élevé en Croatie, il parcourt dans sa jeunesse une grande partie de l'Europe, visite l'Algérie et l'Islande. Il n'a que 21 ans lorsqu'en 1882 il entreprend un tour du monde par l'ouest. 
 Il part ainsi avec un ami médecin de Glasgow (5 septembre 1882) et arrive à New York le 14 septembre. Il traverse alors le continent par les chutes du Niagara, Chicago, Cheyenne, passe les Rocheuses, voit Ogden et son lac salé, la Sierra Nevada et San Francisco d'où il embarque sur un paquebot américain, le Gaëlic dont l'équipage est entièrement chinois et débarque le 19 octobre à Yokohama. 
 Par le chemin de fer, les deux hommes entrent à Tokyo où Dalmas obtient du gouverneur Tricou les autorisations pour explorer les montagnes intérieures. Il loue alors un pousse-pousse qui le conduit à Uruwa et Kumagaya puis Takasaki. Il fait l'ascension de l'Azama-Yama et du sommet peut observer le Fuji-Yama. Il redescend ensuite sur Komoro puis atteint la station thermale de Shimosuwa au lac Suwa. Il traverse alors les provinces de Mino et d'Omi et rejoint le lac Biwa d'où, par un petit vapeur, il gagne Otsu. 
 Il visite alors Kyoto puis en train part à Osaka et Kobé. Après un séjour de trois mois, il reprend le bateau le 20 janvier 1883 pour Hong Kong. Il se rend à Victoria et à Kowloon puis remonte la rivière des Perles jusqu'à Canton. 
 Il fait escale ensuite à Saïgon, Singapour et Colombo et revient à Paris le 6 mars 1883. 
-En avril-mai 1894, il effectue un voyage sur la mer Méditerranée d'où il revient avec un album de soixante-quatorze photographies de Grèce et de Turquie conservé de nos jours à la Bibliothèque nationale de France[1].
+En avril-mai 1894, il effectue un voyage sur la mer Méditerranée d'où il revient avec un album de soixante-quatorze photographies de Grèce et de Turquie conservé de nos jours à la Bibliothèque nationale de France.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Japonais, leur pays et leur mœurs. Voyage autour du monde, préface d'Henri Duveyrier, Plon-Nourrit, 1885
 Japon et Japonais, H. Gautier, 1895
